--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H2">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I2">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J2">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>79.51226658103809</v>
+        <v>115.579448936578</v>
       </c>
       <c r="R2">
-        <v>79.51226658103809</v>
+        <v>1040.215040429202</v>
       </c>
       <c r="S2">
-        <v>0.2432440033696514</v>
+        <v>0.2562831373557382</v>
       </c>
       <c r="T2">
-        <v>0.2432440033696514</v>
+        <v>0.2562831373557382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H3">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I3">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J3">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>0.4568014971101281</v>
+        <v>0.6710591520345557</v>
       </c>
       <c r="R3">
-        <v>0.4568014971101281</v>
+        <v>6.039532368311002</v>
       </c>
       <c r="S3">
-        <v>0.001397447584883916</v>
+        <v>0.001487990697455813</v>
       </c>
       <c r="T3">
-        <v>0.001397447584883916</v>
+        <v>0.001487990697455813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H4">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I4">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J4">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>24.43611720700548</v>
+        <v>37.21663227264533</v>
       </c>
       <c r="R4">
-        <v>24.43611720700548</v>
+        <v>334.949690453808</v>
       </c>
       <c r="S4">
-        <v>0.07475499356044686</v>
+        <v>0.0825232804655623</v>
       </c>
       <c r="T4">
-        <v>0.07475499356044686</v>
+        <v>0.08252328046556232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H5">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I5">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J5">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N5">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q5">
-        <v>0.7543513228757167</v>
+        <v>2.124645027093889</v>
       </c>
       <c r="R5">
-        <v>0.7543513228757167</v>
+        <v>19.121805243845</v>
       </c>
       <c r="S5">
-        <v>0.002307712301679505</v>
+        <v>0.004711137648784594</v>
       </c>
       <c r="T5">
-        <v>0.002307712301679505</v>
+        <v>0.004711137648784595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H6">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I6">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J6">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N6">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q6">
-        <v>137.2669781704085</v>
+        <v>143.373684698046</v>
       </c>
       <c r="R6">
-        <v>137.2669781704085</v>
+        <v>1290.363162282414</v>
       </c>
       <c r="S6">
-        <v>0.4199272733169367</v>
+        <v>0.3179134185769506</v>
       </c>
       <c r="T6">
-        <v>0.4199272733169367</v>
+        <v>0.3179134185769507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H7">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I7">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J7">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q7">
-        <v>0.7886048760554304</v>
+        <v>0.8324336563530002</v>
       </c>
       <c r="R7">
-        <v>0.7886048760554304</v>
+        <v>7.491902907177002</v>
       </c>
       <c r="S7">
-        <v>0.002412500804929843</v>
+        <v>0.001845818707854549</v>
       </c>
       <c r="T7">
-        <v>0.002412500804929843</v>
+        <v>0.00184581870785455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H8">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I8">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J8">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N8">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q8">
-        <v>42.18559112265937</v>
+        <v>46.166388143184</v>
       </c>
       <c r="R8">
-        <v>42.18559112265937</v>
+        <v>415.497493288656</v>
       </c>
       <c r="S8">
-        <v>0.1290542014512011</v>
+        <v>0.1023682575282942</v>
       </c>
       <c r="T8">
-        <v>0.1290542014512011</v>
+        <v>0.1023682575282942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H9">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I9">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J9">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N9">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q9">
-        <v>1.302283672978499</v>
+        <v>2.635573962435</v>
       </c>
       <c r="R9">
-        <v>1.302283672978499</v>
+        <v>23.720165661915</v>
       </c>
       <c r="S9">
-        <v>0.003983947480799989</v>
+        <v>0.005844059389801886</v>
       </c>
       <c r="T9">
-        <v>0.003983947480799989</v>
+        <v>0.005844059389801886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H10">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I10">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J10">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N10">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q10">
-        <v>30.38034239169349</v>
+        <v>1.538425916368</v>
       </c>
       <c r="R10">
-        <v>30.38034239169349</v>
+        <v>13.845833247312</v>
       </c>
       <c r="S10">
-        <v>0.09293957303511914</v>
+        <v>0.003411269253001171</v>
       </c>
       <c r="T10">
-        <v>0.09293957303511914</v>
+        <v>0.003411269253001172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H11">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I11">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J11">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q11">
-        <v>0.1745364141154217</v>
+        <v>0.008932165712888891</v>
       </c>
       <c r="R11">
-        <v>0.1745364141154217</v>
+        <v>0.08038949141600001</v>
       </c>
       <c r="S11">
-        <v>0.0005339419680603479</v>
+        <v>1.980597306305425E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005339419680603479</v>
+        <v>1.980597306305425E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H12">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I12">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J12">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N12">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q12">
-        <v>9.336642500509724</v>
+        <v>0.4953738068053334</v>
       </c>
       <c r="R12">
-        <v>9.336642500509724</v>
+        <v>4.458364261248</v>
       </c>
       <c r="S12">
-        <v>0.0285626658314482</v>
+        <v>0.00109843016678156</v>
       </c>
       <c r="T12">
-        <v>0.0285626658314482</v>
+        <v>0.00109843016678156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009069333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.027208</v>
+      </c>
+      <c r="I13">
+        <v>0.004592213221280271</v>
+      </c>
+      <c r="J13">
+        <v>0.004592213221280271</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.118221666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.354665000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="P13">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="Q13">
+        <v>0.02828019170222222</v>
+      </c>
+      <c r="R13">
+        <v>0.25452172532</v>
+      </c>
+      <c r="S13">
+        <v>6.270782843448476E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.270782843448476E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.31786</v>
+      </c>
+      <c r="I14">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J14">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>169.629438</v>
+      </c>
+      <c r="N14">
+        <v>508.888314</v>
+      </c>
+      <c r="O14">
+        <v>0.7428377317484701</v>
+      </c>
+      <c r="P14">
+        <v>0.7428377317484702</v>
+      </c>
+      <c r="Q14">
+        <v>74.51595038756</v>
+      </c>
+      <c r="R14">
+        <v>670.64355348804</v>
+      </c>
+      <c r="S14">
+        <v>0.1652299065627802</v>
+      </c>
+      <c r="T14">
+        <v>0.1652299065627802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.31786</v>
+      </c>
+      <c r="I15">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J15">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9848756666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.954627</v>
+      </c>
+      <c r="O15">
+        <v>0.004312947180081616</v>
+      </c>
+      <c r="P15">
+        <v>0.004312947180081616</v>
+      </c>
+      <c r="Q15">
+        <v>0.4326427486911112</v>
+      </c>
+      <c r="R15">
+        <v>3.89378473822</v>
+      </c>
+      <c r="S15">
+        <v>0.000959331801708199</v>
+      </c>
+      <c r="T15">
+        <v>0.0009593318017081991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.186813902735463</v>
-      </c>
-      <c r="H13">
-        <v>0.186813902735463</v>
-      </c>
-      <c r="I13">
-        <v>0.1229179201294709</v>
-      </c>
-      <c r="J13">
-        <v>0.1229179201294709</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.5428474724094</v>
-      </c>
-      <c r="N13">
-        <v>1.5428474724094</v>
-      </c>
-      <c r="O13">
-        <v>0.00717339907732266</v>
-      </c>
-      <c r="P13">
-        <v>0.00717339907732266</v>
-      </c>
-      <c r="Q13">
-        <v>0.2882253576463445</v>
-      </c>
-      <c r="R13">
-        <v>0.2882253576463445</v>
-      </c>
-      <c r="S13">
-        <v>0.0008817392948431666</v>
-      </c>
-      <c r="T13">
-        <v>0.0008817392948431666</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.31786</v>
+      </c>
+      <c r="I16">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J16">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.620752</v>
+      </c>
+      <c r="N16">
+        <v>163.862256</v>
+      </c>
+      <c r="O16">
+        <v>0.2391940691454494</v>
+      </c>
+      <c r="P16">
+        <v>0.2391940691454494</v>
+      </c>
+      <c r="Q16">
+        <v>23.99416807690667</v>
+      </c>
+      <c r="R16">
+        <v>215.94751269216</v>
+      </c>
+      <c r="S16">
+        <v>0.05320410098481132</v>
+      </c>
+      <c r="T16">
+        <v>0.05320410098481133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.31786</v>
+      </c>
+      <c r="I17">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J17">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.118221666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.354665000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="P17">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="Q17">
+        <v>1.369793201877778</v>
+      </c>
+      <c r="R17">
+        <v>12.3281388169</v>
+      </c>
+      <c r="S17">
+        <v>0.003037347058977877</v>
+      </c>
+      <c r="T17">
+        <v>0.003037347058977877</v>
       </c>
     </row>
   </sheetData>
